--- a/delta2/lib_p/dpid_hscript.xlsx
+++ b/delta2/lib_p/dpid_hscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C52D6DE-491D-E64D-BF09-85FE80ACE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264F9A1-6C98-3B44-8961-F335C1A6F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -905,18 +905,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I106" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I106" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I106" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_did" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{25CCEDAF-1010-9345-9634-3862F5590C9E}" name="delta_category" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_duc" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_did" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{25CCEDAF-1010-9345-9634-3862F5590C9E}" name="delta_category" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_duc" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/delta2/lib_p/dpid_hscript.xlsx
+++ b/delta2/lib_p/dpid_hscript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264F9A1-6C98-3B44-8961-F335C1A6F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BB87B9-6B2E-FB43-A2B7-5B98FA2CD548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="257">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -80,12 +80,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-DLLInjection')</t>
   </si>
   <si>
-    <t>["t105"']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>PowerSploit Cmdlet</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Shellcode')</t>
   </si>
   <si>
-    <t>["t1059"]</t>
-  </si>
-  <si>
     <t>powersploit-pid0004</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-WmiCommand')</t>
   </si>
   <si>
-    <t>["t1047"]</t>
-  </si>
-  <si>
     <t>powersploit-pid0005</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-TokenManipulation')</t>
   </si>
   <si>
-    <t>["t1003"]</t>
-  </si>
-  <si>
     <t>powersploit-pid0015</t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS  'Get-Keystrokes')</t>
   </si>
   <si>
-    <t>["1056"]</t>
-  </si>
-  <si>
     <t>powersploit-pid0019</t>
   </si>
   <si>
@@ -326,9 +308,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainTrust' OR 'Get-NetDomainTrust'] )</t>
   </si>
   <si>
-    <t>["t1482"]</t>
-  </si>
-  <si>
     <t>PowerView Domain Trust Cmdlets</t>
   </si>
   <si>
@@ -356,9 +335,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPO' OR 'Get-NetGPO'])</t>
   </si>
   <si>
-    <t>["t1615"]</t>
-  </si>
-  <si>
     <t>PowerView GPO Enum Cmdlets</t>
   </si>
   <si>
@@ -395,9 +371,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainOU' OR 'Get-NetOU')</t>
   </si>
   <si>
-    <t>["t1018"]</t>
-  </si>
-  <si>
     <t>PowerView Domain Object Cmdlets</t>
   </si>
   <si>
@@ -482,9 +455,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainUser' OR 'Get-NetUser'])</t>
   </si>
   <si>
-    <t>["t1087"]</t>
-  </si>
-  <si>
     <t>PowerView User Object Cmdlet</t>
   </si>
   <si>
@@ -569,9 +539,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainFileServer' OR 'Get-NetFileServer'])</t>
   </si>
   <si>
-    <t>["t1135"]</t>
-  </si>
-  <si>
     <t>PowerView Share Cmdlet</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Kerberoast')</t>
   </si>
   <si>
-    <t>["T1558"]</t>
-  </si>
-  <si>
     <t>Powerview Kerberos AD Enum Cmdlets</t>
   </si>
   <si>
@@ -731,9 +695,6 @@
     <t>powerview-pid0059</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainUserLocation')</t>
-  </si>
-  <si>
     <t>powerview-pid0060</t>
   </si>
   <si>
@@ -816,6 +777,36 @@
   </si>
   <si>
     <t>{case_insensitive}(process_command_line CONTAINS 'Get-PathAcl')</t>
+  </si>
+  <si>
+    <t>PowerSploit Invoke-Mimikatz Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-ShareFinder Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS[ 'Invoke-UserHunter' OR 'Find-DomainUserLocation')</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-UserHunter Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-SMBAutoBrute')</t>
+  </si>
+  <si>
+    <t>Invoke-SMBAutoBrute Pshell Script</t>
+  </si>
+  <si>
+    <t>smbabrute-pid0001</t>
+  </si>
+  <si>
+    <t>pnightmare-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Nightmare')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE-2021-1675 </t>
   </si>
 </sst>
 </file>
@@ -905,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I106" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I106" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I108" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I108" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_did" dataDxfId="7"/>
@@ -1239,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,22 +1294,18 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1330,53 +1317,45 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1385,27 +1364,23 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1414,27 +1389,23 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1443,27 +1414,23 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1472,27 +1439,23 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1501,27 +1464,23 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1530,27 +1489,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1559,27 +1514,23 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1588,27 +1539,23 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1617,27 +1564,23 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1646,27 +1589,23 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1675,27 +1614,23 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -1704,27 +1639,23 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1733,27 +1664,23 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1762,27 +1689,23 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1791,27 +1714,23 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1820,27 +1739,23 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -1849,27 +1764,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1879,24 +1790,20 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -1905,27 +1812,23 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -1934,27 +1837,23 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1963,27 +1862,23 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -1992,27 +1887,23 @@
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -2021,27 +1912,23 @@
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -2050,27 +1937,23 @@
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
@@ -2080,24 +1963,20 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -2107,24 +1986,20 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -2134,24 +2009,20 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -2161,24 +2032,20 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -2188,24 +2055,20 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -2214,27 +2077,23 @@
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -2243,27 +2102,23 @@
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -2272,27 +2127,23 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
@@ -2301,27 +2152,23 @@
         <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2330,27 +2177,23 @@
         <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2359,27 +2202,23 @@
         <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2388,27 +2227,23 @@
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2417,27 +2252,23 @@
         <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2446,27 +2277,23 @@
         <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -2475,27 +2302,23 @@
         <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -2504,27 +2327,23 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -2533,27 +2352,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -2562,27 +2377,23 @@
         <v>11</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -2591,27 +2402,23 @@
         <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -2620,27 +2427,23 @@
         <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
@@ -2649,27 +2452,23 @@
         <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -2678,27 +2477,23 @@
         <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -2707,27 +2502,23 @@
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -2736,27 +2527,23 @@
         <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
@@ -2765,27 +2552,23 @@
         <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -2794,27 +2577,23 @@
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
@@ -2823,27 +2602,23 @@
         <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -2852,27 +2627,23 @@
         <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
@@ -2881,27 +2652,23 @@
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -2910,27 +2677,23 @@
         <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
@@ -2939,27 +2702,23 @@
         <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -2968,27 +2727,23 @@
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
@@ -2997,27 +2752,23 @@
         <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
@@ -3026,27 +2777,23 @@
         <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
@@ -3055,27 +2802,23 @@
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
@@ -3084,27 +2827,23 @@
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
@@ -3113,27 +2852,23 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -3142,27 +2877,23 @@
         <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
@@ -3171,27 +2902,23 @@
         <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -3200,27 +2927,23 @@
         <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -3229,27 +2952,23 @@
         <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
@@ -3258,27 +2977,23 @@
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
@@ -3287,27 +3002,23 @@
         <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -3316,27 +3027,23 @@
         <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
@@ -3345,27 +3052,23 @@
         <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -3374,27 +3077,23 @@
         <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -3403,27 +3102,23 @@
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
@@ -3432,27 +3127,23 @@
         <v>11</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
@@ -3461,27 +3152,23 @@
         <v>11</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -3490,27 +3177,23 @@
         <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
@@ -3519,27 +3202,23 @@
         <v>11</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
@@ -3548,27 +3227,23 @@
         <v>11</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
@@ -3577,27 +3252,23 @@
         <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -3606,27 +3277,23 @@
         <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
@@ -3635,27 +3302,23 @@
         <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -3664,27 +3327,23 @@
         <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
@@ -3693,27 +3352,23 @@
         <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -3722,27 +3377,23 @@
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
@@ -3751,27 +3402,23 @@
         <v>11</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -3780,27 +3427,23 @@
         <v>11</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
@@ -3809,27 +3452,23 @@
         <v>11</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
@@ -3838,27 +3477,23 @@
         <v>11</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
@@ -3867,27 +3502,23 @@
         <v>11</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
@@ -3896,27 +3527,23 @@
         <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
@@ -3925,27 +3552,23 @@
         <v>11</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
@@ -3954,27 +3577,23 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -3983,27 +3602,23 @@
         <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
@@ -4012,27 +3627,23 @@
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -4041,27 +3652,23 @@
         <v>11</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -4070,27 +3677,23 @@
         <v>11</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -4099,27 +3702,23 @@
         <v>11</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -4128,27 +3727,23 @@
         <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
@@ -4157,27 +3752,23 @@
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -4186,27 +3777,23 @@
         <v>11</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -4215,27 +3802,23 @@
         <v>11</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -4244,27 +3827,23 @@
         <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -4273,27 +3852,23 @@
         <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -4302,23 +3877,61 @@
         <v>11</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
